--- a/Scrapping_test/data.xlsx
+++ b/Scrapping_test/data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,12 +412,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Բժշկական ներկայացուցիչ/Վաճառքի մենեջեր</t>
+          <t>Հոսքագծի օպերատոր</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>«Էսզեթ ֆարմա» ՍՊԸ</t>
+          <t>ԻՄԷՔՍ ԳՐՈՒՊ ՍՊԸ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -427,11 +427,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Արտադրություն</t>
         </is>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -450,24 +450,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>01-02-19 00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>02-03-19 23:59</t>
+          <t>03-03-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">էլեկտրատեխնիկ ավտոմատացման տեխնոլոգիաների ոլորտում </t>
+          <t>Սպասարկող մենեջեր</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ԻՄԷՔՍ ԳՐՈՒՊ ՍՊԸ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E3">
@@ -495,29 +495,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Հայաստան, Կոտայքի մարզ</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>01-02-19 00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>03-03-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Արտադրական բաժնի աշխատակից/օպերատոր</t>
+          <t>Բժշկական ներկայացուցիչ/Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>«Էսզեթ ֆարմա» ՍՊԸ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E4">
@@ -555,19 +555,19 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>02-03-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Վերլուծաբան-Համապատասխանության ապահովման վարչության փողերի լվացման  և ահաբեկչության ֆինանսավորման դեմ պայքարի ուղղություն</t>
+          <t xml:space="preserve">էլեկտրատեխնիկ ավտոմատացման տեխնոլոգիաների ոլորտում </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +577,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Արտադրություն</t>
         </is>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Կոտայքի մարզ</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Գլխավոր քիմիկ-տեխնոլոգ</t>
+          <t>Արտադրական բաժնի աշխատակից/օպերատոր</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -627,15 +627,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Սննդի արտադրություն</t>
+          <t>Արտադրություն</t>
         </is>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -655,37 +655,37 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CRM Manager</t>
+          <t>Վերլուծաբան-Համապատասխանության ապահովման վարչության փողերի լվացման  և ահաբեկչության ֆինանսավորման դեմ պայքարի ուղղություն</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -705,47 +705,47 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>01-03-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Գլխավոր քիմիկ-տեխնոլոգ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Envirotech</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Սննդի արտադրություն</t>
         </is>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>300 USD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -755,19 +755,19 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16-02-19 23:59</t>
+          <t>28-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SMM and Corespondence Manager</t>
+          <t>CRM Manager</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Madatoff</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -777,15 +777,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -800,24 +800,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30-01-19 00:00</t>
+          <t>31-01-19 00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>01-03-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Survey on public perceptions of and policy gaps regarding women’s leadership and participation in decision-making in the context of Local Self-Governance reforms</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Envirotech</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,20 +827,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>High School Diploma</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>300 USD</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -850,42 +850,42 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30-01-19 00:00</t>
+          <t>31-01-19 00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31-01-19 17:00</t>
+          <t>16-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Կահույքի ներմուծման մենեջեր</t>
+          <t>SMM and Corespondence Manager</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Madatoff</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -905,19 +905,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Աշխատանքի անվտանգության ինժեներ</t>
+          <t>Կահույքի ներմուծման մենեջեր</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPS Cigaronne  LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,11 +927,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Վերահսկողության գծով ինժեներ</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -962,30 +962,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Deputy Executive Director</t>
+          <t>Աշխատանքի անվտանգության ինժեներ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>SPS Cigaronne  LLC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Վերահսկողության գծով ինժեներ</t>
         </is>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1005,19 +1005,19 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>28-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Financial Control Specialist </t>
+          <t>Deputy Executive Director</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Globbing LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1027,15 +1027,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1055,37 +1055,37 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Կայքի ադմինիստրատոր</t>
+          <t xml:space="preserve">Financial Control Specialist </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ImDproc.am</t>
+          <t>Globbing LLC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Կրթություն/Ուսուցում</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>29-01-19 00:00</t>
+          <t>30-01-19 00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1112,22 +1112,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IT Service Desk Specialist</t>
+          <t>Կայքի ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>ImDproc.am</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Կրթություն/Ուսուցում</t>
         </is>
       </c>
       <c r="E16">
@@ -1135,17 +1135,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>03-02-19 23:59</t>
+          <t>28-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Специалист службы технической поддержки ИТ</t>
+          <t>IT Service Desk Specialist</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Информационные технологии</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E17">
@@ -1185,17 +1185,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конкурентный </t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ՏՏ օժանդակման կենտրոնի մասնագետ</t>
+          <t>Специалист службы технической поддержки ИТ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Информационные технологии</t>
         </is>
       </c>
       <c r="E18">
@@ -1235,17 +1235,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t xml:space="preserve">Конкурентный </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1262,40 +1262,40 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Customer Happiness Specialist</t>
+          <t>ՏՏ օժանդակման կենտրոնի մասնագետ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Globbing LLC</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1305,19 +1305,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>03-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Product Owner </t>
+          <t>Customer Happiness Specialist</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t>Globbing LLC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1327,15 +1327,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1362,12 +1362,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SQL Developer/Business Analyst</t>
+          <t xml:space="preserve">Product Owner </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>Ginosi Apartels and Hotels</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1377,20 +1377,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Competitive, based on experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1400,19 +1400,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>28-01-19 00:00</t>
+          <t>29-01-19 00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>28-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Smart Software Engineer (Full Stack)</t>
+          <t>SQL Developer/Business Analyst</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Competitive with bonuses from deliveries</t>
+          <t>Competitive, based on experience</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1462,7 +1462,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">C++, VC++, MFC Software Engineer </t>
+          <t>Smart Software Engineer (Full Stack)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Competitive with bonuses from deliveries</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1512,22 +1512,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Հաշվապահ</t>
+          <t xml:space="preserve">C++, VC++, MFC Software Engineer </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ecoform</t>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E24">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1555,47 +1555,47 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>20-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R&amp;D Engineer, II</t>
+          <t xml:space="preserve"> Հաշվապահ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Ecoform</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A&amp;MS Circuit Design Engineer, I</t>
+          <t>R&amp;D Engineer, II</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A&amp;MS Circuit Design Engineer, II</t>
+          <t>A&amp;MS Circuit Design Engineer, I</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1712,57 +1712,57 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Տեխնիկական գծով ղեկավար</t>
+          <t>A&amp;MS Circuit Design Engineer, II</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Մենեջմենթ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>26-01-19 00:00</t>
+          <t>28-01-19 00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>28-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Շեֆ-խոհարար</t>
+          <t>Տեխնիկական գծով ղեկավար</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1777,15 +1777,15 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Մենեջմենթ</t>
         </is>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ֆլորիստ-դիզայներ</t>
+          <t>Շեֆ-խոհարար</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="E30">
@@ -1862,12 +1862,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>Ֆլորիստ-դիզայներ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Standard Oil LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E31">
@@ -1885,12 +1885,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>270 000 ՀՀ դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1905,19 +1905,19 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>26-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Մերսող</t>
+          <t>Շուկայի Զարգացման Պատասխանատու</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Standard Oil LLC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Տուրիզմ, Հյուրանոցային գործ</t>
+          <t>Վաճառքի գծով ներկայացուցիչ</t>
         </is>
       </c>
       <c r="E32">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>270 000 ՀՀ դրամ</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>17-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Դիզայներ</t>
+          <t>Մերսող</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1977,11 +1977,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Տուրիզմ, Հյուրանոցային գործ</t>
         </is>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ունիվերսալ խոհարար</t>
+          <t>Դիզայներ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2027,11 +2027,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2062,40 +2062,40 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IT Technician</t>
+          <t>Ունիվերսալ խոհարար</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Energize Global Services CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2112,22 +2112,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Специалист контактного центра / Оператор Call-центра</t>
+          <t>IT Technician</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Energize Global Services CJSC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Административная/Офисная</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E36">
@@ -2135,67 +2135,67 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>от 100.000 до 250.000 драмов</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>26-01-19 00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>26-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Բժիշկ-կոսմետոլոգ</t>
+          <t>Специалист контактного центра / Оператор Call-центра</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Առողջապահություն</t>
+          <t>Административная/Офисная</t>
         </is>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>от 100.000 до 250.000 драмов</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2205,14 +2205,14 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>09-02-19 23:59</t>
+          <t>25-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Բանկետ - մենեջեր</t>
+          <t>Բժիշկ-կոսմետոլոգ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Տուրիզմ, Հյուրանոցային գործ</t>
+          <t>Առողջապահություն</t>
         </is>
       </c>
       <c r="E38">
@@ -2255,47 +2255,47 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Infrastructure Administrator</t>
+          <t>Բանկետ - մենեջեր</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Computer Services, Support</t>
+          <t>Տուրիզմ, Հյուրանոցային գործ</t>
         </is>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, sport activities compensation and professional development opportunities.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2305,14 +2305,14 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Database Administrator (DBA) </t>
+          <t>Infrastructure Administrator</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2327,11 +2327,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Computer Services, Support</t>
         </is>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, sport activities compensation and professional development opportunities.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2362,7 +2362,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Automation QA Engineer</t>
+          <t xml:space="preserve">Database Administrator (DBA) </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Manual QA Engineer</t>
+          <t>Automation QA Engineer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>QA, Quality Control</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>.Net Developer (Full Stack)</t>
+          <t>Manual QA Engineer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>QA, Quality Control</t>
         </is>
       </c>
       <c r="E43">
@@ -2512,12 +2512,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>.Net Developer (Full Stack)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HooK</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2527,11 +2527,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2555,19 +2555,19 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>16-02-19 23:59</t>
+          <t>25-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>.Net Developer</t>
+          <t>Digital Marketing Specialist</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>HooK</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2577,11 +2577,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Competitive, based on qualifications and work experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>16-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>.Net  ծրագրավորող</t>
+          <t>.Net Developer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2622,30 +2622,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, based on qualifications and work experience</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2662,7 +2662,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Database Developer</t>
+          <t>.Net  ծրագրավորող</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2672,30 +2672,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Competitive, based on qualifications and work experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2712,7 +2712,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Երևան քաղաքի մասնաճյուղերում ստաժոր/փորձնակ/ /հաշվապահ- գանձապահ, վարկային մասնագետ/</t>
+          <t>Database Developer</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2722,12 +2722,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Պրակտիկա</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E48">
@@ -2735,17 +2735,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, based on qualifications and work experience</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2762,22 +2762,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Специалист по закупкам</t>
+          <t>Երևան քաղաքի մասնաճյուղերում ստաժոր/փորձնակ/ /հաշվապահ- գանձապահ, վարկային մասնագետ/</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Պրակտիկա</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Покупки</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E49">
@@ -2785,67 +2785,67 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120,000-200,000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>25-01-19 00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>25-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ֆինանսատնտեսագիտական բաժնի պետ</t>
+          <t>Специалист по закупкам</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"Grand Candy"  LLC</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Покупки</t>
         </is>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120,000-200,000 AMD</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2862,40 +2862,40 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Chief Marketing and PR Specialist</t>
+          <t>Ֆինանսատնտեսագիտական բաժնի պետ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>"Grand Candy"  LLC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2905,14 +2905,14 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>24-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Մարքեթինգի գլխավոր մասնագետ</t>
+          <t>Chief Marketing and PR Specialist</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E52">
@@ -2935,17 +2935,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2962,12 +2962,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ապարատավար</t>
+          <t>Մարքեթինգի գլխավոր մասնագետ</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ԲԻՈԿԱԹ</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2977,15 +2977,15 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3005,47 +3005,47 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>20-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Ապարատավար</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>ԲԻՈԿԱԹ</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Միջնակարգ դպրոցի ատեստատ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3055,14 +3055,14 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>24-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Մարքեթինգի մասնագետ</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E55">
@@ -3085,17 +3085,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3112,12 +3112,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Մարդկային  ռեսուրսների  կառավարման  մասնագետ</t>
+          <t>Մարքեթինգի մասնագետ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Vardanants CIM</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3155,47 +3155,47 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intern (Technical-Engineering)</t>
+          <t>Մարդկային  ռեսուրսների  կառավարման  մասնագետ</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Vardanants CIM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
         </is>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3231,11 +3231,11 @@
         </is>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3262,80 +3262,80 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Գանձապահ / Դիլիջան  մ/ճ</t>
+          <t>Intern (Technical-Engineering)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Internship</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Հայաստան, Դիլիջան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>23-01-19 00:00</t>
+          <t>24-01-19 00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>03-02-19 23:59</t>
+          <t>24-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Marketing Manager (Arabian division)</t>
+          <t>Գանձապահ / Դիլիջան  մ/ճ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMarkets</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Դիլիջան</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3355,19 +3355,19 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>23-02-19 23:59</t>
+          <t>03-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Software Engineer (C++ Object Oriented)</t>
+          <t>Marketing Manager (Arabian division)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>AMarkets</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Engineering, Technology</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E61">
@@ -3405,19 +3405,19 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>23-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Secretary </t>
+          <t>Software Engineer (C++ Object Oriented)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Engineering, Technology</t>
         </is>
       </c>
       <c r="E62">
@@ -3455,37 +3455,37 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ուղեկցման բաժնի մասնագետ</t>
+          <t xml:space="preserve">Secretary </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3505,37 +3505,37 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>23-02-19 23:59</t>
+          <t>17-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Affiliate/Partners Manager (Yerevan)</t>
+          <t>Ուղեկցման բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMarkets</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3545,29 +3545,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>23-01-19 00:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>05-02-19 23:59</t>
+          <t>23-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>System and Network Administrator</t>
+          <t>Affiliate/Partners Manager (Yerevan)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Haytech Solutions</t>
+          <t>AMarkets</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3577,20 +3577,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Depending on the skills and experience.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3605,19 +3605,19 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>05-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MICE/Tourism Manager</t>
+          <t>System and Network Administrator</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Go2Armenia</t>
+          <t>Haytech Solutions</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3627,20 +3627,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Meeting, Events Management</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>High School Diploma</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Depending on the skills and experience.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3655,19 +3655,19 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Software Engineer .Net oriented (Senior/Mid)</t>
+          <t>MICE/Tourism Manager</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Go2Armenia</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Engineering, Technology</t>
+          <t>Meeting, Events Management</t>
         </is>
       </c>
       <c r="E67">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>High School Diploma</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3705,14 +3705,14 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Monitoring Operator</t>
+          <t>Software Engineer .Net oriented (Senior/Mid)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Engineering, Technology</t>
         </is>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3755,14 +3755,14 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>05-02-19 23:59</t>
+          <t>22-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Software Engineer (React.js Oriented)</t>
+          <t xml:space="preserve"> Monitoring Operator</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3777,11 +3777,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3805,37 +3805,37 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>05-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Վաճառքի թիմի ղեկավար</t>
+          <t>Software Engineer (React.js Oriented)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3862,12 +3862,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Վաճառքի թիմի ղեկավար</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ԲԻՈԿԱԹ</t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3877,11 +3877,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3912,30 +3912,30 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EfuSoft LLC</t>
+          <t>ԲԻՈԿԱԹ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Network Operations</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3962,30 +3962,30 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Էլեկտրոնիկայի մասնագետ</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SPS Cigaronne  LLC</t>
+          <t>EfuSoft LLC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Network Operations</t>
         </is>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4012,40 +4012,40 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Senior Analog Design Engineer, I</t>
+          <t>Էլեկտրոնիկայի մասնագետ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>SPS Cigaronne  LLC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4062,7 +4062,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Synthesis Specialist Applications Engineer</t>
+          <t>Senior Analog Design Engineer, I</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>R&amp;D Engineer, I</t>
+          <t>Synthesis Specialist Applications Engineer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4162,57 +4162,57 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>R&amp;D Engineer, I</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Prima Finance LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>21-01-19 00:00</t>
+          <t>22-01-19 00:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>21-02-19 23:59</t>
+          <t>22-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E78">
@@ -4235,17 +4235,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4262,22 +4262,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1C օպերատոր</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mehrabyan and Sons LLC</t>
+          <t>Prima Finance LLC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="E79">
@@ -4285,17 +4285,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>21-02-19 23:59</t>
         </is>
       </c>
     </row>
@@ -4562,12 +4562,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ֆինանսական խորհրդատու / Հրազդան մ/ճ</t>
+          <t>Վաճառող-Խորհրդատու / Վանաձոր</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E85">
@@ -4590,12 +4590,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Հայաստան, Հրազդան</t>
+          <t>Հայաստան, Վանաձոր</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4605,47 +4605,47 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>21-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու / Վանաձոր</t>
+          <t>Online Marketing Specialist, SEO/Content Writing</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>DOE</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Հայաստան, Վանաձոր</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4655,14 +4655,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>21-02-19 23:59</t>
+          <t>20-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Online Marketing Specialist, SEO/Content Writing</t>
+          <t>Designer, Web UI/UX</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4672,12 +4672,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Graphics</t>
         </is>
       </c>
       <c r="E87">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>DOE</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4712,30 +4712,30 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Designer, Web UI/UX</t>
+          <t>Առևտրային վարկերի գծով մասնագետ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Graphics</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4755,14 +4755,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>21-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Առևտրային վարկերի գծով մասնագետ</t>
+          <t>Վարկերի մոնիտորինգի բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4812,12 +4812,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Վարկերի մոնիտորինգի բաժնի մասնագետ</t>
+          <t>Մարքեթինգի բաժնի մենեջեր</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>“Profpanel” LLC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4827,11 +4827,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4850,52 +4850,52 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>21-01-19 00:00</t>
+          <t>18-01-19 00:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>21-02-19 23:59</t>
+          <t>18-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Մարքեթինգի բաժնի մենեջեր</t>
+          <t>Dispatch Agent</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>“Profpanel” LLC</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Logistics</t>
         </is>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Commission based only</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4912,22 +4912,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dispatch Agent</t>
+          <t>Մասնաճյուղի կառավարիչ</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Կրեդո Ֆինանս ՈՒՎԿ ՖԲԸ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Logistics</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E92">
@@ -4935,17 +4935,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Commission based only</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4962,40 +4962,40 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Մասնաճյուղի կառավարիչ</t>
+          <t>Юрист</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Կրեդո Ֆինանս ՈՒՎԿ ՖԲԸ</t>
+          <t>Ekra Caucasus LLC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Юриспруденция</t>
         </is>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Договорная </t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5012,22 +5012,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Юрист</t>
+          <t>Հոսքագծի օպերատոր-կարգավորող</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ekra Caucasus LLC</t>
+          <t>SPS Cigaronne  LLC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Юриспруденция</t>
+          <t>Հաստոցներ</t>
         </is>
       </c>
       <c r="E94">
@@ -5035,17 +5035,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Договорная </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5062,12 +5062,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր-կարգավորող</t>
+          <t>ԱՀՏՄ ծրագրի տնտեսական զարգացման գործողությունների համակարգող</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SPS Cigaronne  LLC</t>
+          <t>Հայ օգնության ֆոնդի Հայաստանի մասնաճյուղ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5077,15 +5077,15 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Հաստոցներ</t>
+          <t>Սոց ոլորտ, ՀԿ</t>
         </is>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5095,47 +5095,47 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Բերդ</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>18-01-19 00:00</t>
+          <t>17-01-19 00:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>18-02-19 23:59</t>
+          <t>04-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ԱՀՏՄ ծրագրի տնտեսական զարգացման գործողությունների համակարգող</t>
+          <t>Android Developer</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Հայ օգնության ֆոնդի Հայաստանի մասնաճյուղ</t>
+          <t>Advanced Mobile Systems Inc</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Սոց ոլորտ, ՀԿ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Հայաստան, Բերդ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5155,47 +5155,47 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>04-02-19 23:59</t>
+          <t>17-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Старший специалист отдела кредитования физических лиц</t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Банки, Финансы, Бухгалтерия</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Конкурентный</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5205,47 +5205,47 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>17-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Individual Loans Underwriting Senior Specialist</t>
+          <t>Արտադրության ղեկավար</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Spayka LLC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Սննդի արտադրություն</t>
         </is>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5255,19 +5255,19 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>17-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ֆիզիկական անձանց վարկավորման բաժնի ավագ մասնագետ</t>
+          <t>Հիդրոինժեներ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E99">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5300,24 +5300,24 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>17-01-19 00:00</t>
+          <t>16-01-19 00:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>16-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Android Developer</t>
+          <t>Content Writer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Advanced Mobile Systems Inc</t>
+          <t>First Outsourcing Company</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5350,124 +5350,124 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>17-01-19 00:00</t>
+          <t>16-01-19 00:00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
+          <t xml:space="preserve"> IT Officer/ ArmSoft Administrator</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Byblos Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t xml:space="preserve"> Competitive salary, plus benefits.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>17-01-19 00:00</t>
+          <t>16-01-19 00:00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>16-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Կորպորատիվ հաճախորդների հետ աշխատանքի վարչության միջազգային բիզնեսի բաժնի պետ</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>17-01-19 00:00</t>
+          <t>16-01-19 00:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>16-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Գանձապահ /  Ստեփանավան մ/ճ</t>
+          <t>Գլխավոր հաշվապահի օգնական</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Նարսան ՍՊԸ</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5481,38 +5481,38 @@
         </is>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Սկսած 180.000 ՀՀ Դրամից</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Հայաստան, Ստեփանավան</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>17-01-19 00:00</t>
+          <t>15-01-19 00:00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Արտադրության ղեկավար</t>
+          <t>Վաճառքի մասնագետ</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Սննդի արտադրություն</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E104">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Աշխատավարձ</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5550,142 +5550,142 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>17-01-19 00:00</t>
+          <t>15-01-19 00:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ֆինանսական խորհրդատու /Գորիս մ/ճ</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>EfuSoft LLC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Հայաստան, Գորիս</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>17-01-19 00:00</t>
+          <t>15-01-19 00:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Վարկային  մասնագետ/ Գորիս մ/ճ</t>
+          <t>RRP Digital Marketing Executive</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t xml:space="preserve">Philip Morris Armenia LLC </t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Հայաստան, Գորիս</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>17-01-19 00:00</t>
+          <t>15-01-19 00:00</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Հիդրոինժեներ</t>
+          <t>Senior Scientist Data Analytics</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t xml:space="preserve">Philip Morris Armenia LLC </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Research/Science</t>
         </is>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5695,79 +5695,79 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>16-01-19 00:00</t>
+          <t>15-01-19 00:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>16-02-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Content Writer</t>
+          <t>Նախագծի ղեկավար</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>First Outsourcing Company</t>
+          <t>Սօս Սիսթեմս ՍՊԸ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Նախնական՝ կախված փորձից</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>16-01-19 00:00</t>
+          <t>15-01-19 00:00</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IT Officer/ ArmSoft Administrator</t>
+          <t>PR Manager</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Byblos Bank Armenia CJSC</t>
+          <t>Havana Restaurant Complex</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5777,11 +5777,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Competitive salary, plus benefits.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5800,24 +5800,24 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>16-01-19 00:00</t>
+          <t>15-01-19 00:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>16-02-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Telesales Specialist - Evening Shift</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5827,20 +5827,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
+          <t>Fix + commission</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5850,74 +5850,74 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>16-01-19 00:00</t>
+          <t>15-01-19 00:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>16-02-19 23:59</t>
+          <t>15-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահի օգնական</t>
+          <t>Director of Commercial and Acquisitions</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Նարսան ՍՊԸ</t>
+          <t>Ginosi Apartels and Hotels</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Սկսած 180.000 ՀՀ Դրամից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>15-01-19 00:00</t>
+          <t>14-01-19 00:00</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>14-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Վաճառքի մասնագետ</t>
+          <t xml:space="preserve"> Բժիշկ-խորհրդատու</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Spayka LLC</t>
+          <t>Դիագեն Պլյուս ՍՊԸ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5927,11 +5927,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Առողջապահություն</t>
         </is>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Աշխատավարձ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5950,34 +5950,34 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>15-01-19 00:00</t>
+          <t>14-01-19 00:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>14-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Менеджер коммерческого отдела</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>EfuSoft LLC</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Реклама/Маркетинг, PR</t>
         </is>
       </c>
       <c r="E113">
@@ -5985,57 +5985,57 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>170000</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>15-01-19 00:00</t>
+          <t>14-01-19 00:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>14-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RRP Digital Marketing Executive</t>
+          <t>Ֆինանսական Գործառույթների բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philip Morris Armenia LLC </t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -6045,47 +6045,47 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>15-01-19 00:00</t>
+          <t>13-01-19 00:00</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Senior Scientist Data Analytics</t>
+          <t>Հաշվետար-օպերատոր</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philip Morris Armenia LLC </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Research/Science</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -6095,89 +6095,89 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>15-01-19 00:00</t>
+          <t>13-01-19 00:00</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Նախագծի ղեկավար</t>
+          <t>Financial Specialist</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Սօս Սիսթեմս ՍՊԸ</t>
+          <t xml:space="preserve">Alpha Food Service LLC </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Նախնական՝ կախված փորձից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>15-01-19 00:00</t>
+          <t>13-01-19 00:00</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PR Manager</t>
+          <t>Ֆինանսական մասնագետ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Havana Restaurant Complex</t>
+          <t xml:space="preserve">Alpha Food Service LLC </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E117">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>15-01-19 00:00</t>
+          <t>13-01-19 00:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6212,112 +6212,112 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Telesales Specialist - Evening Shift</t>
+          <t>Ավագ հաշվապահ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Խայծ Իշխան ՍՊԸ</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Fix + commission</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>15-01-19 00:00</t>
+          <t>13-01-19 00:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>13-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Director of Commercial and Acquisitions</t>
+          <t>Վաճառող-Խորհրդատու /Սիսիան</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Սիսիան</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>14-01-19 00:00</t>
+          <t>11-01-19 00:00</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>14-02-19 23:59</t>
+          <t>11-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Բժիշկ-խորհրդատու</t>
+          <t>Վաճառող-Խորհրդատու /Ջրվեժ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Դիագեն Պլյուս ՍՊԸ</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6327,11 +6327,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Առողջապահություն</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6340,84 +6340,84 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Կոտայքի մարզ</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>14-01-19 00:00</t>
+          <t>11-01-19 00:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>14-02-19 23:59</t>
+          <t>11-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Менеджер коммерческого отдела</t>
+          <t>Հրուշակագործ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Реклама/Маркетинг, PR</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Միջնակարգ դպրոցի ատեստատ</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>170000</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>14-01-19 00:00</t>
+          <t>11-01-19 00:00</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>14-02-19 23:59</t>
+          <t>11-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ֆինանսական Գործառույթների բաժնի մասնագետ</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>Հայաստանի Շախմատի Ակադեմիա</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6427,11 +6427,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>N-A</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6450,19 +6450,19 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>13-01-19 00:00</t>
+          <t>11-01-19 00:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>11-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Հաշվետար-օպերատոր</t>
+          <t>Վարորդ-առաքիչ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6477,20 +6477,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Միջնակարգ դպրոցի ատեստատ</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>130.000  ՀՀ դրամ</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6500,24 +6500,24 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>13-01-19 00:00</t>
+          <t>11-01-19 00:00</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>11-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Financial Specialist</t>
+          <t xml:space="preserve"> Rental Agent</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alpha Food Service LLC </t>
+          <t>Europcar Armenia</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6527,11 +6527,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Sales Representative</t>
         </is>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6550,24 +6550,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>13-01-19 00:00</t>
+          <t>11-01-19 00:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>11-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ֆինանսական մասնագետ</t>
+          <t>Գործավարուհի</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alpha Food Service LLC </t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6577,11 +6577,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6600,102 +6600,102 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>13-01-19 00:00</t>
+          <t>11-01-19 00:00</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>11-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ավագ հաշվապահ</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Խայծ Իշխան ՍՊԸ</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>13-01-19 00:00</t>
+          <t>11-01-19 00:00</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>11-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Սիսիան</t>
+          <t>Support Specialist</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Հայաստան, Սիսիան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6712,40 +6712,40 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Ջրվեժ</t>
+          <t>Administrative Associate</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Հայաստան, Կոտայքի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6762,30 +6762,30 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Հրուշակագործ</t>
+          <t xml:space="preserve">QA Specialist </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6812,12 +6812,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Հայաստանի Շախմատի Ակադեմիա</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6827,20 +6827,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Վաճառքի գծով ներկայացուցիչ</t>
         </is>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>N-A</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Վարորդ-առաքիչ</t>
+          <t>Հյուրընկալ</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E131">
@@ -6885,12 +6885,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>130.000  ՀՀ դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6900,24 +6900,24 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>11-01-19 00:00</t>
+          <t>10-01-19 00:00</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>11-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rental Agent</t>
+          <t>Logistics Dispatcher</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Europcar Armenia</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6927,15 +6927,15 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
+          <t>Logistics, Transportation</t>
         </is>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>High School Diploma</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6950,42 +6950,42 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>11-01-19 00:00</t>
+          <t>10-01-19 00:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>11-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>UX/UI Designer</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Graphic Design</t>
         </is>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6995,29 +6995,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>11-01-19 00:00</t>
+          <t>10-01-19 00:00</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>11-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>AAB Construction</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -7027,11 +7027,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7050,24 +7050,24 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>11-01-19 00:00</t>
+          <t>10-01-19 00:00</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>11-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Support Specialist</t>
+          <t>Construction Project Manager</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>AAB Construction</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E135">
@@ -7100,24 +7100,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>11-01-19 00:00</t>
+          <t>10-01-19 00:00</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>11-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Administrative Associate</t>
+          <t>Legal Advisor</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>AAB Construction</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7127,11 +7127,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7150,42 +7150,42 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>11-01-19 00:00</t>
+          <t>10-01-19 00:00</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>11-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">QA Specialist </t>
+          <t>Վաճառքի և արտահանման մասնագետ</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7195,29 +7195,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>11-01-19 00:00</t>
+          <t>10-01-19 00:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>11-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Alyans BSM LLC</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E138">
@@ -7250,24 +7250,24 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>11-01-19 00:00</t>
+          <t>10-01-19 00:00</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>11-02-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Country  Sales Manager Assistant</t>
+          <t xml:space="preserve"> C++Developer </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>CQGI MA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7277,11 +7277,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive + benefits, including medical insurance, English/Russian classes, flexible vacation schedule and paid sick leave days, professional improvement seminars, corporate events and a fully stocked kitchen for breakfast and lunch, and more.</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7305,29 +7305,29 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>10-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Հյուրընկալ</t>
+          <t>Junior Brand Manager</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Անդակո ՍՊԸ</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E140">
@@ -7335,34 +7335,34 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive based on skills and the experience</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Logistics Dispatcher</t>
+          <t>Монтажник бытовой техники</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7372,102 +7372,102 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Архитектура, Строительство</t>
         </is>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>High School Diploma</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>70.000 до 100.000 рублей</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Россия, Москва</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>UX/UI Designer</t>
+          <t>Менеджер по тендерам</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Graphic Design</t>
+          <t>Административная/Офисная</t>
         </is>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120,000-300,000 AMD</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>IT Business Analyst</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AAB Construction</t>
+          <t>VOLO LLC</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7477,11 +7477,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on previous experience and skills</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7500,24 +7500,24 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Construction Project Manager</t>
+          <t>Experienced .NET Developer</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AAB Construction</t>
+          <t>VOLO LLC</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7527,11 +7527,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on previous experience and skills</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7550,24 +7550,24 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Legal Advisor</t>
+          <t>Branch Representative</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AAB Construction</t>
+          <t>HSBC Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7577,11 +7577,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7600,24 +7600,24 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Վաճառքի և արտահանման մասնագետ</t>
+          <t>Արտադրամասի ղեկավար</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Դարոյնք ՍՊԸ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7627,15 +7627,15 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Սննդի արտադրություն</t>
         </is>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7650,24 +7650,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Վաճառքի գծով ներկայացուցիչ /Սյունիք</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Alyans BSM LLC</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7695,107 +7695,107 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Սյունիքի մարզ</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C++Developer </t>
+          <t>Վաճառքի գծով ներկայացուցիչ / Երևան</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CQGI MA</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Competitive + benefits, including medical insurance, English/Russian classes, flexible vacation schedule and paid sick leave days, professional improvement seminars, corporate events and a fully stocked kitchen for breakfast and lunch, and more.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>10-01-19 00:00</t>
+          <t>09-01-19 00:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>10-02-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Junior Brand Manager</t>
+          <t>Վաճառքի գծով ներկայացուցիչ /Վայոց Ձոր</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Անդակո ՍՊԸ</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Competitive based on skills and the experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Վայոց Ձորի մարզ</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7812,40 +7812,40 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Монтажник бытовой техники</t>
+          <t>Ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Անկանոն</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Архитектура, Строительство</t>
+          <t>Տուրիզմ, Հյուրանոցային գործ</t>
         </is>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>70.000 до 100.000 рублей</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Россия, Москва</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7862,22 +7862,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Менеджер по тендерам</t>
+          <t>Product Result Analyst</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Административная/Офисная</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E151">
@@ -7885,17 +7885,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>120,000-300,000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7912,40 +7912,40 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IT Business Analyst</t>
+          <t>FrontEnd разработчик (Верстальщик)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>VOLO LLC</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Программное обеспечение</t>
         </is>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Competitive, depending on previous experience and skills</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7962,40 +7962,40 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Experienced .NET Developer</t>
+          <t>Тестировщик программного обеспечения</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>VOLO LLC</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Информационные технологии</t>
         </is>
       </c>
       <c r="E153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Competitive, depending on previous experience and skills</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8012,12 +8012,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Head of Customer Value Management</t>
+          <t>iOS Senior Developer</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -8027,11 +8027,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8055,19 +8055,19 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>31-01-19 23:59</t>
+          <t>09-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Branch Representative</t>
+          <t xml:space="preserve"> Android Senior Developer</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -8077,11 +8077,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8112,40 +8112,40 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Արտադրամասի ղեկավար</t>
+          <t>Designer - Website Coordinator</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Դարոյնք ՍՊԸ</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Սննդի արտադրություն</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>High</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8162,176 +8162,176 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ /Սյունիք</t>
+          <t xml:space="preserve">Full Stack Developer </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Հայաստան, Սյունիքի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>09-01-19 00:00</t>
+          <t>08-01-19 00:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>09-02-19 23:59</t>
+          <t>08-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ / Երևան</t>
+          <t>C/C++ Developer</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>09-01-19 00:00</t>
+          <t>08-01-19 00:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>09-02-19 23:59</t>
+          <t>08-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ /Վայոց Ձոր</t>
+          <t xml:space="preserve">Database Administrator </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Հայաստան, Վայոց Ձորի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>09-01-19 00:00</t>
+          <t>08-01-19 00:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>09-02-19 23:59</t>
+          <t>08-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր</t>
+          <t>Սպորտային իրադարձությունների վերլուծաբան</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Անկանոն</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Տուրիզմ, Հյուրանոցային գործ</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8350,19 +8350,19 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>09-01-19 00:00</t>
+          <t>08-01-19 00:00</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>09-02-19 23:59</t>
+          <t>07-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Product Result Analyst</t>
+          <t>Ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E161">
@@ -8385,575 +8385,75 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>09-01-19 00:00</t>
+          <t>08-01-19 00:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>09-02-19 23:59</t>
+          <t>07-02-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FrontEnd разработчик (Верстальщик)</t>
+          <t>Աշխատանքի պլանավորման և վերստուգման մասնագետ</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Программное обеспечение</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>140.000 ՀՀԴ</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>09-01-19 00:00</t>
+          <t>08-01-19 00:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
-        <is>
-          <t>09-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Тестировщик программного обеспечения</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Полная ставка</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Информационные технологии</t>
-        </is>
-      </c>
-      <c r="E163">
-        <v>2</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Степень бакалавра</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Армения, Ереван</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>09-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>09-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>iOS Senior Developer</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>IUNetworks LLC</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E164">
-        <v>5</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>09-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>09-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Android Senior Developer</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>IUNetworks LLC</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E165">
-        <v>5</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>09-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>09-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Designer - Website Coordinator</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Mobile Centre Art LLC</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>09-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>09-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Full Stack Developer </t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>VEHERE Interactive Private  Limited</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Computer - Software</t>
-        </is>
-      </c>
-      <c r="E167">
-        <v>2</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>08-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>08-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>C/C++ Developer</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>VEHERE Interactive Private  Limited</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Computer - Software</t>
-        </is>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>08-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>08-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Database Administrator </t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>VEHERE Interactive Private  Limited</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Computer - Software</t>
-        </is>
-      </c>
-      <c r="E169">
-        <v>2</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>08-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>08-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Սպորտային իրադարձությունների վերլուծաբան</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Վարչական/Գրասենյակային</t>
-        </is>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>120.000 ՀՀ Դրամ</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>08-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>07-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Ադմինիստրատիվ օգնական</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Վարչական/Գրասենյակային</t>
-        </is>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>120.000 ՀՀ Դրամ</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>08-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>07-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Աշխատանքի պլանավորման և վերստուգման մասնագետ</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Վարչական/Գրասենյակային</t>
-        </is>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>140.000 ՀՀԴ</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>08-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
         <is>
           <t>07-02-19 23:59</t>
         </is>
